--- a/inside_office/excel/【Excel】準1級.xlsx
+++ b/inside_office/excel/【Excel】準1級.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.13.36\課題回収\おくむら(Web1B)\012コウヨウ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seito\Documents\012Yeung\openforward\inside_office\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EA7170-5A2E-4C2E-981F-35894AA924B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA6FF9-F088-472A-8318-887087B38E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" activeTab="2" xr2:uid="{100E11DB-56ED-40A3-A068-FCF8E3FEF8DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" activeTab="3" xr2:uid="{100E11DB-56ED-40A3-A068-FCF8E3FEF8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="準1-1解答例" sheetId="1" r:id="rId1"/>
     <sheet name="準1-1" sheetId="2" r:id="rId2"/>
     <sheet name="準1-2" sheetId="3" r:id="rId3"/>
+    <sheet name="準1-3" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="sheet1委託販売手数料一覧表">'準1-1'!$A$11:$K$23</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>商品一覧表</t>
     <rPh sb="0" eb="5">
@@ -453,6 +454,248 @@
   </si>
   <si>
     <t>南四国物産</t>
+  </si>
+  <si>
+    <t>基本料金計算表</t>
+    <rPh sb="0" eb="4">
+      <t>キホンリョウキン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイサンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＣＯ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本単価</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本料金</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加単価</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカタンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z商品</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求金額一覧表</t>
+    <rPh sb="0" eb="4">
+      <t>セイキュウキンガク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本料金</t>
+    <rPh sb="0" eb="4">
+      <t>キホンリョウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加料金</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカリョウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補償料</t>
+    <rPh sb="0" eb="2">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸出料金</t>
+    <rPh sb="0" eb="4">
+      <t>カシダシリョウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割引率</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>割引額</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求金額</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西日本企画</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニッポン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大久保物産</t>
+    <rPh sb="0" eb="3">
+      <t>オオクボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブッサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヤマト商会</t>
+    <rPh sb="3" eb="5">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＡＢＣ総業</t>
+    <rPh sb="3" eb="5">
+      <t>ソウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北海道電機</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐々木産業</t>
+    <rPh sb="0" eb="3">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日の出商事</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康ホーム</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -671,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,14 +1002,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -778,6 +1015,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4186,16 +4432,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -4398,19 +4644,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -4992,11 +5238,11 @@
       <c r="K25" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
@@ -5118,16 +5364,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -5154,10 +5400,10 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="29"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
@@ -5340,19 +5586,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -5934,11 +6180,11 @@
       <c r="K25" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
@@ -6028,8 +6274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CD3C1-72CC-43D4-8F13-4E39D3243E9A}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6048,20 +6294,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="M1" s="29" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="M1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="29"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -6242,10 +6488,10 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="8"/>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="31"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
@@ -6283,19 +6529,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
       <c r="M10" s="4">
         <v>2400000</v>
       </c>
@@ -6356,30 +6602,30 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f>VLOOKUP(C12,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" ref="D12:D23" si="6">VLOOKUP(C12,sheet2商品別定価計算表,2,0)</f>
         <v>E商品</v>
       </c>
       <c r="E12" s="5">
         <v>668</v>
       </c>
       <c r="F12" s="21">
-        <f>VLOOKUP(C12,sheet2商品別定価計算表,8,0)*E12</f>
+        <f t="shared" ref="F12:F23" si="7">VLOOKUP(C12,sheet2商品別定価計算表,8,0)*E12</f>
         <v>2398120</v>
       </c>
-      <c r="G12" s="30">
-        <f>VLOOKUP(F12,sheet2値引率表,2,1)</f>
+      <c r="G12" s="29">
+        <f t="shared" ref="G12:G23" si="8">VLOOKUP(F12,sheet2値引率表,2,1)</f>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="H12" s="21">
         <f>ROUNDUP(F12*G12,0)</f>
         <v>163073</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="30">
         <f>F12-H12</f>
         <v>2235047</v>
       </c>
       <c r="J12" s="21">
-        <f>I12-VLOOKUP(C12,sheet2商品別定価計算表,6,0)*E12</f>
+        <f t="shared" ref="J12:J23" si="9">I12-VLOOKUP(C12,sheet2商品別定価計算表,6,0)*E12</f>
         <v>328575</v>
       </c>
       <c r="K12" s="8" t="str">
@@ -6399,34 +6645,34 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f>VLOOKUP(C13,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>F商品</v>
       </c>
       <c r="E13" s="5">
         <v>785</v>
       </c>
       <c r="F13" s="21">
-        <f>VLOOKUP(C13,sheet2商品別定価計算表,8,0)*E13</f>
+        <f t="shared" si="7"/>
         <v>3100750</v>
       </c>
-      <c r="G13" s="30">
-        <f>VLOOKUP(F13,sheet2値引率表,2,1)</f>
+      <c r="G13" s="29">
+        <f t="shared" si="8"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="H13" s="21">
-        <f t="shared" ref="H13:H23" si="6">ROUNDUP(F13*G13,0)</f>
+        <f t="shared" ref="H13:H23" si="10">ROUNDUP(F13*G13,0)</f>
         <v>266665</v>
       </c>
-      <c r="I13" s="32">
-        <f t="shared" ref="I13:I23" si="7">F13-H13</f>
+      <c r="I13" s="30">
+        <f t="shared" ref="I13:I23" si="11">F13-H13</f>
         <v>2834085</v>
       </c>
       <c r="J13" s="21">
-        <f>I13-VLOOKUP(C13,sheet2商品別定価計算表,6,0)*E13</f>
+        <f t="shared" si="9"/>
         <v>391950</v>
       </c>
       <c r="K13" s="8" t="str">
-        <f t="shared" ref="K13:K23" si="8">IF(AND(C13&lt;&gt;12,J13&gt;=330000),"良好","")</f>
+        <f t="shared" ref="K13:K23" si="12">IF(AND(C13&lt;&gt;12,J13&gt;=330000),"良好","")</f>
         <v/>
       </c>
     </row>
@@ -6442,34 +6688,34 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f>VLOOKUP(C14,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>G商品</v>
       </c>
       <c r="E14" s="5">
         <v>654</v>
       </c>
       <c r="F14" s="21">
-        <f>VLOOKUP(C14,sheet2商品別定価計算表,8,0)*E14</f>
+        <f t="shared" si="7"/>
         <v>2419800</v>
       </c>
-      <c r="G14" s="30">
-        <f>VLOOKUP(F14,sheet2値引率表,2,1)</f>
+      <c r="G14" s="29">
+        <f t="shared" si="8"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="H14" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>186325</v>
       </c>
-      <c r="I14" s="32">
-        <f t="shared" si="7"/>
+      <c r="I14" s="30">
+        <f t="shared" si="11"/>
         <v>2233475</v>
       </c>
       <c r="J14" s="21">
-        <f>I14-VLOOKUP(C14,sheet2商品別定価計算表,6,0)*E14</f>
+        <f t="shared" si="9"/>
         <v>312023</v>
       </c>
       <c r="K14" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6485,34 +6731,34 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="str">
-        <f>VLOOKUP(C15,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>H商品</v>
       </c>
       <c r="E15" s="5">
         <v>686</v>
       </c>
       <c r="F15" s="21">
-        <f>VLOOKUP(C15,sheet2商品別定価計算表,8,0)*E15</f>
+        <f t="shared" si="7"/>
         <v>2401000</v>
       </c>
-      <c r="G15" s="30">
-        <f>VLOOKUP(F15,sheet2値引率表,2,1)</f>
+      <c r="G15" s="29">
+        <f t="shared" si="8"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="H15" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>184877</v>
       </c>
-      <c r="I15" s="32">
-        <f t="shared" si="7"/>
+      <c r="I15" s="30">
+        <f t="shared" si="11"/>
         <v>2216123</v>
       </c>
       <c r="J15" s="21">
-        <f>I15-VLOOKUP(C15,sheet2商品別定価計算表,6,0)*E15</f>
+        <f t="shared" si="9"/>
         <v>323449</v>
       </c>
       <c r="K15" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6528,34 +6774,34 @@
         <v>11</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f>VLOOKUP(C16,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>E商品</v>
       </c>
       <c r="E16" s="5">
         <v>847</v>
       </c>
       <c r="F16" s="21">
-        <f>VLOOKUP(C16,sheet2商品別定価計算表,8,0)*E16</f>
+        <f t="shared" si="7"/>
         <v>3040730</v>
       </c>
-      <c r="G16" s="30">
-        <f>VLOOKUP(F16,sheet2値引率表,2,1)</f>
+      <c r="G16" s="29">
+        <f t="shared" si="8"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>261503</v>
       </c>
-      <c r="I16" s="32">
-        <f t="shared" si="7"/>
+      <c r="I16" s="30">
+        <f t="shared" si="11"/>
         <v>2779227</v>
       </c>
       <c r="J16" s="21">
-        <f>I16-VLOOKUP(C16,sheet2商品別定価計算表,6,0)*E16</f>
+        <f t="shared" si="9"/>
         <v>361889</v>
       </c>
       <c r="K16" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>良好</v>
       </c>
     </row>
@@ -6571,34 +6817,34 @@
         <v>12</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f>VLOOKUP(C17,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>F商品</v>
       </c>
       <c r="E17" s="5">
         <v>524</v>
       </c>
       <c r="F17" s="21">
-        <f>VLOOKUP(C17,sheet2商品別定価計算表,8,0)*E17</f>
+        <f t="shared" si="7"/>
         <v>2069800</v>
       </c>
-      <c r="G17" s="30">
-        <f>VLOOKUP(F17,sheet2値引率表,2,1)</f>
+      <c r="G17" s="29">
+        <f t="shared" si="8"/>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="H17" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>140747</v>
       </c>
-      <c r="I17" s="32">
-        <f t="shared" si="7"/>
+      <c r="I17" s="30">
+        <f t="shared" si="11"/>
         <v>1929053</v>
       </c>
       <c r="J17" s="21">
-        <f>I17-VLOOKUP(C17,sheet2商品別定価計算表,6,0)*E17</f>
+        <f t="shared" si="9"/>
         <v>298889</v>
       </c>
       <c r="K17" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6614,34 +6860,34 @@
         <v>13</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f>VLOOKUP(C18,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>G商品</v>
       </c>
       <c r="E18" s="5">
         <v>694</v>
       </c>
       <c r="F18" s="21">
-        <f>VLOOKUP(C18,sheet2商品別定価計算表,8,0)*E18</f>
+        <f t="shared" si="7"/>
         <v>2567800</v>
       </c>
-      <c r="G18" s="30">
-        <f>VLOOKUP(F18,sheet2値引率表,2,1)</f>
+      <c r="G18" s="29">
+        <f t="shared" si="8"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="H18" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>197721</v>
       </c>
-      <c r="I18" s="32">
-        <f t="shared" si="7"/>
+      <c r="I18" s="30">
+        <f t="shared" si="11"/>
         <v>2370079</v>
       </c>
       <c r="J18" s="21">
-        <f>I18-VLOOKUP(C18,sheet2商品別定価計算表,6,0)*E18</f>
+        <f t="shared" si="9"/>
         <v>331107</v>
       </c>
       <c r="K18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>良好</v>
       </c>
     </row>
@@ -6657,34 +6903,34 @@
         <v>14</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f>VLOOKUP(C19,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>H商品</v>
       </c>
       <c r="E19" s="5">
         <v>775</v>
       </c>
       <c r="F19" s="21">
-        <f>VLOOKUP(C19,sheet2商品別定価計算表,8,0)*E19</f>
+        <f t="shared" si="7"/>
         <v>2712500</v>
       </c>
-      <c r="G19" s="30">
-        <f>VLOOKUP(F19,sheet2値引率表,2,1)</f>
+      <c r="G19" s="29">
+        <f t="shared" si="8"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="H19" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>233275</v>
       </c>
-      <c r="I19" s="32">
-        <f t="shared" si="7"/>
+      <c r="I19" s="30">
+        <f t="shared" si="11"/>
         <v>2479225</v>
       </c>
       <c r="J19" s="21">
-        <f>I19-VLOOKUP(C19,sheet2商品別定価計算表,6,0)*E19</f>
+        <f t="shared" si="9"/>
         <v>341000</v>
       </c>
       <c r="K19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>良好</v>
       </c>
     </row>
@@ -6700,34 +6946,34 @@
         <v>11</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f>VLOOKUP(C20,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>E商品</v>
       </c>
       <c r="E20" s="5">
         <v>571</v>
       </c>
       <c r="F20" s="21">
-        <f>VLOOKUP(C20,sheet2商品別定価計算表,8,0)*E20</f>
+        <f t="shared" si="7"/>
         <v>2049890</v>
       </c>
-      <c r="G20" s="30">
-        <f>VLOOKUP(F20,sheet2値引率表,2,1)</f>
+      <c r="G20" s="29">
+        <f t="shared" si="8"/>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="H20" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>139393</v>
       </c>
-      <c r="I20" s="32">
-        <f t="shared" si="7"/>
+      <c r="I20" s="30">
+        <f t="shared" si="11"/>
         <v>1910497</v>
       </c>
       <c r="J20" s="21">
-        <f>I20-VLOOKUP(C20,sheet2商品別定価計算表,6,0)*E20</f>
+        <f t="shared" si="9"/>
         <v>280863</v>
       </c>
       <c r="K20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6743,34 +6989,34 @@
         <v>12</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f>VLOOKUP(C21,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>F商品</v>
       </c>
       <c r="E21" s="5">
         <v>639</v>
       </c>
       <c r="F21" s="21">
-        <f>VLOOKUP(C21,sheet2商品別定価計算表,8,0)*E21</f>
+        <f t="shared" si="7"/>
         <v>2524050</v>
       </c>
-      <c r="G21" s="30">
-        <f>VLOOKUP(F21,sheet2値引率表,2,1)</f>
+      <c r="G21" s="29">
+        <f t="shared" si="8"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>194352</v>
       </c>
-      <c r="I21" s="32">
-        <f t="shared" si="7"/>
+      <c r="I21" s="30">
+        <f t="shared" si="11"/>
         <v>2329698</v>
       </c>
       <c r="J21" s="21">
-        <f>I21-VLOOKUP(C21,sheet2商品別定価計算表,6,0)*E21</f>
+        <f t="shared" si="9"/>
         <v>341769</v>
       </c>
       <c r="K21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -6786,34 +7032,34 @@
         <v>13</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f>VLOOKUP(C22,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>G商品</v>
       </c>
       <c r="E22" s="5">
         <v>824</v>
       </c>
       <c r="F22" s="21">
-        <f>VLOOKUP(C22,sheet2商品別定価計算表,8,0)*E22</f>
+        <f t="shared" si="7"/>
         <v>3048800</v>
       </c>
-      <c r="G22" s="30">
-        <f>VLOOKUP(F22,sheet2値引率表,2,1)</f>
+      <c r="G22" s="29">
+        <f t="shared" si="8"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="H22" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>262197</v>
       </c>
-      <c r="I22" s="32">
-        <f t="shared" si="7"/>
+      <c r="I22" s="30">
+        <f t="shared" si="11"/>
         <v>2786603</v>
       </c>
       <c r="J22" s="21">
-        <f>I22-VLOOKUP(C22,sheet2商品別定価計算表,6,0)*E22</f>
+        <f t="shared" si="9"/>
         <v>365691</v>
       </c>
       <c r="K22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>良好</v>
       </c>
     </row>
@@ -6829,34 +7075,34 @@
         <v>14</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f>VLOOKUP(C23,sheet2商品別定価計算表,2,0)</f>
+        <f t="shared" si="6"/>
         <v>H商品</v>
       </c>
       <c r="E23" s="5">
         <v>803</v>
       </c>
       <c r="F23" s="21">
-        <f>VLOOKUP(C23,sheet2商品別定価計算表,8,0)*E23</f>
+        <f t="shared" si="7"/>
         <v>2810500</v>
       </c>
-      <c r="G23" s="30">
-        <f>VLOOKUP(F23,sheet2値引率表,2,1)</f>
+      <c r="G23" s="29">
+        <f t="shared" si="8"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="H23" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>241703</v>
       </c>
-      <c r="I23" s="32">
-        <f t="shared" si="7"/>
+      <c r="I23" s="30">
+        <f t="shared" si="11"/>
         <v>2568797</v>
       </c>
       <c r="J23" s="21">
-        <f>I23-VLOOKUP(C23,sheet2商品別定価計算表,6,0)*E23</f>
+        <f t="shared" si="9"/>
         <v>353320</v>
       </c>
       <c r="K23" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>良好</v>
       </c>
     </row>
@@ -6880,41 +7126,41 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="33">
+      <c r="E25" s="31">
         <f>SUM(E12:E23)</f>
         <v>8470</v>
       </c>
-      <c r="F25" s="33">
-        <f t="shared" ref="F25:J25" si="9">SUM(F12:F23)</f>
+      <c r="F25" s="31">
+        <f t="shared" ref="F25:J25" si="13">SUM(F12:F23)</f>
         <v>31143740</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33">
-        <f t="shared" si="9"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31">
+        <f t="shared" si="13"/>
         <v>2471831</v>
       </c>
-      <c r="I25" s="33">
-        <f t="shared" si="9"/>
+      <c r="I25" s="31">
+        <f t="shared" si="13"/>
         <v>28671909</v>
       </c>
-      <c r="J25" s="33">
-        <f t="shared" si="9"/>
+      <c r="J25" s="31">
+        <f t="shared" si="13"/>
         <v>4030525</v>
       </c>
       <c r="K25" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -6923,7 +7169,7 @@
       <c r="F28" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="32" t="s">
         <v>60</v>
       </c>
       <c r="H28" s="20" t="s">
@@ -6969,11 +7215,11 @@
       <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="31">
         <f>DSUM(sheet2得意先別利益額一覧表,B$28,$H$28:$H$29)</f>
         <v>2837</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <f>DSUM(sheet2得意先別利益額一覧表,C$28,$H$28:$H$29)</f>
         <v>1341643</v>
       </c>
@@ -6990,4 +7236,301 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E09626-DE7B-4D9B-BCF6-14D2EC06373A}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>101</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="21">
+        <v>6710</v>
+      </c>
+      <c r="D3" s="21">
+        <f>C3*10</f>
+        <v>67100</v>
+      </c>
+      <c r="E3" s="22">
+        <f>ROUNDDOWN(C3*1.23,-1)</f>
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>102</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="21">
+        <v>4830</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" ref="D4:D6" si="0">C4*10</f>
+        <v>48300</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" ref="E4:E6" si="1">ROUNDDOWN(C4*1.23,-1)</f>
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="21">
+        <v>6120</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>61200</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="1"/>
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9">
+        <v>104</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="31">
+        <v>5640</v>
+      </c>
+      <c r="D6" s="31">
+        <f t="shared" si="0"/>
+        <v>56400</v>
+      </c>
+      <c r="E6" s="33">
+        <f t="shared" si="1"/>
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,$A$3:$E$6,2,FALSE)</f>
+        <v>W商品</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="36">
+        <f>VLOOKUP(C10,$A$3:$E$6,4,FALSE)</f>
+        <v>67100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>